--- a/target/classes/PredefinedResults.xlsx
+++ b/target/classes/PredefinedResults.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="143">
   <si>
     <t>sampAnAsses</t>
   </si>
@@ -601,38 +601,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -1075,6 +1043,38 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1337,34 +1337,34 @@
   <tableColumns count="10">
     <tableColumn id="1" name="recordType" dataDxfId="23"/>
     <tableColumn id="9" name="source" dataDxfId="22"/>
-    <tableColumn id="10" name="sourceLabel" dataDxfId="0"/>
-    <tableColumn id="6" name="confirmatoryExecuted" dataDxfId="21"/>
-    <tableColumn id="2" name="sampAnAsses" dataDxfId="20"/>
-    <tableColumn id="3" name="sampAnAssesLabel" dataDxfId="19"/>
-    <tableColumn id="4" name="screening" dataDxfId="18"/>
-    <tableColumn id="8" name="confirmatory" dataDxfId="17"/>
-    <tableColumn id="5" name="discriminatory" dataDxfId="16"/>
-    <tableColumn id="7" name="genotypingBaseTerm" dataDxfId="15"/>
+    <tableColumn id="10" name="sourceLabel" dataDxfId="21"/>
+    <tableColumn id="6" name="confirmatoryExecuted" dataDxfId="20"/>
+    <tableColumn id="2" name="sampAnAsses" dataDxfId="19"/>
+    <tableColumn id="3" name="sampAnAssesLabel" dataDxfId="18"/>
+    <tableColumn id="4" name="screening" dataDxfId="17"/>
+    <tableColumn id="8" name="confirmatory" dataDxfId="16"/>
+    <tableColumn id="5" name="discriminatory" dataDxfId="15"/>
+    <tableColumn id="7" name="genotypingBaseTerm" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I29" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I29" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:I29"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="recordType" dataDxfId="9"/>
-    <tableColumn id="2" name="anMethtype" dataDxfId="8"/>
-    <tableColumn id="7" name="filter" dataDxfId="7">
+    <tableColumn id="1" name="recordType" dataDxfId="8"/>
+    <tableColumn id="2" name="anMethtype" dataDxfId="7"/>
+    <tableColumn id="7" name="filter" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[recordType]],MID(Table2[[#This Row],[anMethtype]],1,5))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="possible results" dataDxfId="6"/>
-    <tableColumn id="6" name="paramCode" dataDxfId="5"/>
-    <tableColumn id="4" name="param desc" dataDxfId="4"/>
-    <tableColumn id="5" name="resVal" dataDxfId="3"/>
-    <tableColumn id="8" name="codes" dataDxfId="2"/>
-    <tableColumn id="9" name="codici" dataDxfId="1"/>
+    <tableColumn id="3" name="possible results" dataDxfId="5"/>
+    <tableColumn id="6" name="paramCode" dataDxfId="4"/>
+    <tableColumn id="4" name="param desc" dataDxfId="3"/>
+    <tableColumn id="5" name="resVal" dataDxfId="2"/>
+    <tableColumn id="8" name="codes" dataDxfId="1"/>
+    <tableColumn id="9" name="codici" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1660,10 +1660,10 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,9 +1983,7 @@
       <c r="H12" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="I12" s="8"/>
       <c r="J12" s="1" t="s">
         <v>93</v>
       </c>
@@ -2171,9 +2169,7 @@
       <c r="H18" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="I18" s="8"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
